--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>BAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>67826000</v>
+      </c>
+      <c r="E8" s="3">
         <v>56771000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40786000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24411000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19913000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18364000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20093000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18766000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15921000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41463000</v>
+      </c>
+      <c r="E9" s="3">
         <v>37506000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>26461000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>12487000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9988000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9381000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>10416000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10846000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>11906000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>26363000</v>
+      </c>
+      <c r="E10" s="3">
         <v>19265000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14325000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11924000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9925000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8983000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9677000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7920000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4015000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4876000</v>
+      </c>
+      <c r="E15" s="3">
         <v>3102000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2345000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2020000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1695000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1470000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1455000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1263000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>904000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61977000</v>
+      </c>
+      <c r="E17" s="3">
         <v>49531000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35622000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21418000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15048000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11832000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15404000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15492000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11739000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5849000</v>
+      </c>
+      <c r="E18" s="3">
         <v>7240000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5164000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2993000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4865000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>6532000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4689000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3274000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4182000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,8 +1050,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1047,39 +1080,45 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10725000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10342000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7509000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5013000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6560000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8002000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6144000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4537000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5086000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5849000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7240000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5164000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2993000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4865000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6532000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4689000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3274000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4182000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-248000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>613000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-345000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>196000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1323000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>845000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>519000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>508000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5354000</v>
+      </c>
+      <c r="E26" s="3">
         <v>7488000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4551000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3338000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4669000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5209000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3844000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2755000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3674000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3433000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1317000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1518000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2207000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2956000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1975000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1251000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1851000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,9 +1443,12 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1407,39 +1476,45 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3433000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1317000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1518000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2956000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1975000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1251000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1851000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3433000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1317000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1518000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2956000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1975000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1251000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1851000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6778000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8390000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5139000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4299000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2774000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3160000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3663000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2850000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2027000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,99 +1709,111 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11129000</v>
+      </c>
+      <c r="E43" s="3">
         <v>9167000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7209000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4294000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7044000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8845000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6666000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4379000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4149000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10272000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6989000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6311000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>5349000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5281000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5620000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6291000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>13160000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6060000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5636000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5508000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3350000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3448000</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>1490000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1727000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1855000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1740,99 +1841,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53166000</v>
+      </c>
+      <c r="E47" s="3">
         <v>39874000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>36794000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>29677000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29372000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21201000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18224000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26418000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13174000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>185950000</v>
+      </c>
+      <c r="E48" s="3">
         <v>151603000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>109875000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>99518000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>84437000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>76002000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>142756000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>109786000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54353000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>42260000</v>
+      </c>
+      <c r="E49" s="3">
         <v>27577000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19559000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9856000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7713000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7139000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>6632000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8260000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9182000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8669000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6840000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4093000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2998000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2893000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4221000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2289000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2511000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2829000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>323969000</v>
+      </c>
+      <c r="E54" s="3">
         <v>256281000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>192720000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>159826000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>139514000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>129480000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>112745000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>108862000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>91022000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,58 +2138,62 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>29084000</v>
+      </c>
+      <c r="E57" s="3">
         <v>23740000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>17821000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11879000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11276000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10408000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10316000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7203000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5342000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16329000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11624000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10778000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8973000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11484000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4782000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -2068,9 +2201,12 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2098,9 +2234,12 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2128,69 +2267,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>143275000</v>
+      </c>
+      <c r="E61" s="3">
         <v>108995000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>69857000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>58080000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>48946000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50104000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47653000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>46022000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38207000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14849000</v>
+      </c>
+      <c r="E62" s="3">
         <v>12236000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11409000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>9640000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8785000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8097000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6164000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6425000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5817000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288956000</v>
+      </c>
+      <c r="E66" s="3">
         <v>226466000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>164476000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>133373000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>114207000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>105778000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>91866000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>87811000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72139000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,39 +2546,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="E70" s="3">
         <v>4168000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>4192000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>3954000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3739000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3549000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3098000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>2901000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2140000</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16408000</v>
+      </c>
+      <c r="E72" s="3">
         <v>14551000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11899000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11182000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10507000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9266000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7014000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6364000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5472000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30868000</v>
+      </c>
+      <c r="E76" s="3">
         <v>25647000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24052000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22499000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21568000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20153000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17781000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18150000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16743000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3433000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1317000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1518000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2956000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1975000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1251000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1851000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4876000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3102000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2345000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2020000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1695000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1470000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1455000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1263000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>904000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6321000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5158000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3985000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3083000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2788000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2574000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2278000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1505000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>780000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9974000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4841000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3804000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3441000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4032000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3095000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6292000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5688000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4081000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36674000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19833000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11394000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8557000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11064000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9596000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4041000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4562000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-772000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-726000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-685000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-633000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-584000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-542000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-541000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-425000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>28746000</v>
+      </c>
+      <c r="E100" s="3">
         <v>18136000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8185000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6993000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8222000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6633000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2710000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3917000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2650000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-210000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>64000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>6000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-332000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-114000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-134000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-41000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-35000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1612000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3251000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>840000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1525000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-386000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-503000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>813000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>819000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>314000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>BAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62752000</v>
+      </c>
+      <c r="E8" s="3">
         <v>67826000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>56771000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>40786000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24411000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19913000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18364000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20093000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18766000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15921000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>35150000</v>
+      </c>
+      <c r="E9" s="3">
         <v>41463000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37506000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26461000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>12487000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>9988000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9381000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>10416000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10846000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>11906000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>27602000</v>
+      </c>
+      <c r="E10" s="3">
         <v>26363000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>19265000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14325000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11924000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>9925000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8983000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9677000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7920000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4015000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>5791000</v>
+      </c>
+      <c r="E15" s="3">
         <v>4876000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3102000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2345000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2020000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1695000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1470000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1455000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1263000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>904000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61208000</v>
+      </c>
+      <c r="E17" s="3">
         <v>61977000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49531000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35622000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>21418000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15048000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11832000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15404000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15492000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11739000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5849000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7240000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5164000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2993000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4865000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6532000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4689000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3274000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4182000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,8 +1083,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,42 +1116,48 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7335000</v>
+      </c>
+      <c r="E21" s="3">
         <v>10725000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10342000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7509000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5013000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6560000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8002000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6144000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4537000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5086000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1149,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1544000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5849000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7240000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5164000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2993000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4865000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6532000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4689000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3274000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4182000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>837000</v>
+      </c>
+      <c r="E24" s="3">
         <v>495000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-248000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>613000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-345000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>196000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1323000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>845000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>519000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>508000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>707000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5354000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7488000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4551000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3338000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4669000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5209000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3844000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2755000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3674000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2655000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3433000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1317000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1518000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2207000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2956000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1975000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1251000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1851000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,9 +1512,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1479,42 +1548,48 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2655000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3433000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1317000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1518000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2956000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1975000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1251000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1851000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2655000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3433000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1317000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1518000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2956000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1975000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1251000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1851000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,41 +1732,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9933000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6778000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8390000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5139000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4299000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2774000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3160000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3663000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2850000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2027000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,108 +1801,120 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10113000</v>
+      </c>
+      <c r="E43" s="3">
         <v>11129000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>9167000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7209000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4294000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7044000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>8845000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6666000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4379000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4149000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10360000</v>
+      </c>
+      <c r="E44" s="3">
         <v>10272000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6989000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6311000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5349000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5281000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5620000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>6291000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>13160000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6060000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6335000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5636000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5508000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3350000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3448000</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>1490000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1727000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1855000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1844,108 +1945,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>59057000</v>
+      </c>
+      <c r="E47" s="3">
         <v>53166000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>39874000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>36794000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29677000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29372000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21201000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18224000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26418000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13174000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>196791000</v>
+      </c>
+      <c r="E48" s="3">
         <v>185950000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>151603000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>109875000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>99518000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>84437000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>76002000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>142756000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>109786000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54353000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>39372000</v>
+      </c>
+      <c r="E49" s="3">
         <v>42260000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27577000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19559000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>9856000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7713000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7139000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>6632000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8260000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9182000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11650000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8669000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6840000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4093000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2998000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2893000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4221000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2289000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2511000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2829000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>343696000</v>
+      </c>
+      <c r="E54" s="3">
         <v>323969000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>256281000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>192720000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>159826000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>139514000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129480000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>112745000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>108862000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>91022000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,64 +2268,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35307000</v>
+      </c>
+      <c r="E57" s="3">
         <v>29084000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>23740000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>17821000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11879000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11276000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10408000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10316000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7203000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5342000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22102000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16329000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11624000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10778000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8973000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11484000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4782000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2204,9 +2337,12 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2237,9 +2373,12 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2270,75 +2409,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>143917000</v>
+      </c>
+      <c r="E61" s="3">
         <v>143275000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>108995000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>69857000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>58080000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>48946000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50104000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47653000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>46022000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38207000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15913000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14849000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>12236000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11409000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>9640000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8785000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8097000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6164000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6425000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5817000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>307858000</v>
+      </c>
+      <c r="E66" s="3">
         <v>288956000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>226466000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>164476000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>133373000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>114207000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>105778000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>91866000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>87811000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>72139000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2559,32 +2726,35 @@
         <v>4145000</v>
       </c>
       <c r="E70" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="F70" s="3">
         <v>4168000</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>4192000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>3954000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3739000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3549000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>3098000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2901000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2140000</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15952000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16408000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14551000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11899000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11182000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10507000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9266000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7014000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6364000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5472000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31693000</v>
+      </c>
+      <c r="E76" s="3">
         <v>30868000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>25647000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24052000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22499000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21568000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20153000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17781000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18150000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16743000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-275000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2655000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3433000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1317000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1518000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2956000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1975000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1251000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1851000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5791000</v>
+      </c>
+      <c r="E83" s="3">
         <v>4876000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3102000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2345000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2020000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1695000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1470000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1455000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1263000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>904000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8364000</v>
+      </c>
+      <c r="E89" s="3">
         <v>6321000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5158000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3985000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3083000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2788000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2574000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2278000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1505000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>780000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9123000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9974000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4841000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3804000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3441000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4032000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3095000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6292000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5688000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4081000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13873000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36674000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19833000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11394000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8557000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11064000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9596000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4041000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4562000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3525,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-867000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-772000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-726000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-685000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-633000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-584000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-542000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-541000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-425000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8698000</v>
+      </c>
+      <c r="E100" s="3">
         <v>28746000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18136000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8185000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6993000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8222000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6633000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2710000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3917000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2650000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-210000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>64000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-332000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-114000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-134000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-41000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-35000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3155000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1612000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3251000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>840000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1525000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-386000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-503000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>813000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>819000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>314000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>BAM</t>
   </si>
@@ -1143,8 +1143,8 @@
       <c r="I21" s="3">
         <v>6560000</v>
       </c>
-      <c r="J21" s="3">
-        <v>8002000</v>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>6144000</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12694000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9933000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6778000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8390000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5139000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4299000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2774000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>3160000</v>
       </c>
       <c r="K41" s="3">
         <v>3663000</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33718000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10113000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>11129000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9167000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7209000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4294000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7044000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>8845000</v>
       </c>
       <c r="K43" s="3">
         <v>6666000</v>
@@ -1847,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11415000</v>
+      </c>
+      <c r="E44" s="3">
         <v>10360000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>10272000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6989000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6311000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5349000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5281000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5620000</v>
       </c>
       <c r="K44" s="3">
         <v>6291000</v>
@@ -1882,23 +1882,23 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>6335000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5636000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5508000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3350000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3448000</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -1955,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>62646000</v>
+      </c>
+      <c r="E47" s="3">
         <v>59057000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>53166000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>39874000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36794000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29677000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29372000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>21201000</v>
       </c>
       <c r="K47" s="3">
         <v>18224000</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>216354000</v>
+      </c>
+      <c r="E48" s="3">
         <v>196791000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>185950000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>151603000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>109875000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>99518000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>84437000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>76002000</v>
       </c>
       <c r="K48" s="3">
         <v>142756000</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>50836000</v>
+      </c>
+      <c r="E49" s="3">
         <v>39372000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>42260000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27577000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19559000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9856000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7713000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7139000</v>
       </c>
       <c r="K49" s="3">
         <v>6632000</v>
@@ -2135,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3340000</v>
+      </c>
+      <c r="E52" s="3">
         <v>11650000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8669000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6840000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4093000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2998000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2893000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>4221000</v>
       </c>
       <c r="K52" s="3">
         <v>2289000</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>391003000</v>
+      </c>
+      <c r="E54" s="3">
         <v>343696000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>323969000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>256281000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>192720000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>159826000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>139514000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>129480000</v>
       </c>
       <c r="K54" s="3">
         <v>112745000</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56165000</v>
+      </c>
+      <c r="E57" s="3">
         <v>35307000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>29084000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23740000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>17821000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11879000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11276000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>10408000</v>
       </c>
       <c r="K57" s="3">
         <v>10316000</v>
@@ -2310,26 +2310,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>22102000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16329000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11624000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10778000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8973000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11484000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4782000</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -2419,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>175932000</v>
+      </c>
+      <c r="E61" s="3">
         <v>143917000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>143275000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>108995000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>69857000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>58080000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>48946000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>50104000</v>
       </c>
       <c r="K61" s="3">
         <v>47653000</v>
@@ -2455,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20328000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15913000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14849000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12236000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11409000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>9640000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8785000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8097000</v>
       </c>
       <c r="K62" s="3">
         <v>6164000</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>344648000</v>
+      </c>
+      <c r="E66" s="3">
         <v>307858000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288956000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>226466000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>164476000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>133373000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>114207000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>105778000</v>
       </c>
       <c r="K66" s="3">
         <v>91866000</v>
@@ -2729,19 +2729,19 @@
         <v>4145000</v>
       </c>
       <c r="F70" s="3">
+        <v>4145000</v>
+      </c>
+      <c r="G70" s="3">
         <v>4168000</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>4192000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>3954000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>3739000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>3549000</v>
       </c>
       <c r="K70" s="3">
         <v>3098000</v>
@@ -2795,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>42210000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16408000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14551000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11899000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11182000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10507000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>9266000</v>
       </c>
       <c r="K72" s="3">
         <v>7014000</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>42210000</v>
+      </c>
+      <c r="E76" s="3">
         <v>31693000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30868000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>25647000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24052000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22499000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21568000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>20153000</v>
       </c>
       <c r="K76" s="3">
         <v>17781000</v>
@@ -3121,8 +3121,8 @@
       <c r="I83" s="3">
         <v>1695000</v>
       </c>
-      <c r="J83" s="3">
-        <v>1470000</v>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>1455000</v>
@@ -3497,8 +3497,8 @@
       <c r="I94" s="3">
         <v>-11064000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-9596000</v>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-4041000</v>
@@ -3693,8 +3693,8 @@
       <c r="I100" s="3">
         <v>8222000</v>
       </c>
-      <c r="J100" s="3">
-        <v>6633000</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>2710000</v>
@@ -3729,8 +3729,8 @@
       <c r="I101" s="3">
         <v>-332000</v>
       </c>
-      <c r="J101" s="3">
-        <v>-114000</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-134000</v>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>75731000</v>
+      </c>
+      <c r="E8" s="3">
         <v>62752000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>67826000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>56771000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>40786000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24411000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19913000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18364000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>18766000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15921000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>44149000</v>
+      </c>
+      <c r="E9" s="3">
         <v>35150000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41463000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37506000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>26461000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>12487000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>9988000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>9381000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10416000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10846000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>11906000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>31582000</v>
+      </c>
+      <c r="E10" s="3">
         <v>27602000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26363000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>19265000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14325000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11924000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9925000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8983000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9677000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7920000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4015000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>6437000</v>
+      </c>
+      <c r="E15" s="3">
         <v>5791000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4876000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3102000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2345000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2020000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1695000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1470000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1455000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1263000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>904000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>61019000</v>
+      </c>
+      <c r="E17" s="3">
         <v>61208000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>61977000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49531000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35622000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>21418000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15048000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>11832000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15404000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15492000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11739000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14712000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1544000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5849000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7240000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5164000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2993000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4865000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6532000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4689000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3274000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4182000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1116,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,45 +1152,51 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21149000</v>
+      </c>
+      <c r="E21" s="3">
         <v>7335000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10725000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10342000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7509000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5013000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6560000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6144000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4537000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5086000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14712000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1544000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5849000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7240000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5164000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2993000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4865000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6532000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4689000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3274000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4182000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2324000</v>
+      </c>
+      <c r="E24" s="3">
         <v>837000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>495000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-248000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>613000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-345000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>196000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1323000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>845000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>519000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>508000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12388000</v>
+      </c>
+      <c r="E26" s="3">
         <v>707000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5354000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7488000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4551000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3338000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4669000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5209000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3844000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2755000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3674000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3818000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-275000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2655000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3433000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1317000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1518000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2207000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2956000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1975000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1251000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1851000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,9 +1581,12 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1551,45 +1620,51 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3818000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-275000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2655000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3433000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1317000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1518000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2956000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1975000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1251000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1851000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3818000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-275000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2655000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3433000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1317000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1518000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2956000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1975000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1251000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1851000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,8 +1818,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1760,17 +1846,20 @@
         <v>2774000</v>
       </c>
       <c r="K41" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="L41" s="3">
         <v>3663000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2850000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2027000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1804,14 +1893,17 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>33718000</v>
+        <v>11332000</v>
       </c>
       <c r="E43" s="3">
         <v>10113000</v>
@@ -1832,17 +1924,20 @@
         <v>7044000</v>
       </c>
       <c r="K43" s="3">
+        <v>7044000</v>
+      </c>
+      <c r="L43" s="3">
         <v>6666000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4379000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4149000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1868,22 +1963,25 @@
         <v>5281000</v>
       </c>
       <c r="K44" s="3">
+        <v>5281000</v>
+      </c>
+      <c r="L44" s="3">
         <v>6291000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>13160000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6060000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>8162000</v>
       </c>
       <c r="E45" s="3">
         <v>6335000</v>
@@ -1903,18 +2001,21 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>1490000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1727000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1855000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1948,9 +2049,12 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1976,17 +2080,20 @@
         <v>29372000</v>
       </c>
       <c r="K47" s="3">
+        <v>29372000</v>
+      </c>
+      <c r="L47" s="3">
         <v>18224000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26418000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13174000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2012,17 +2119,20 @@
         <v>84437000</v>
       </c>
       <c r="K48" s="3">
+        <v>84437000</v>
+      </c>
+      <c r="L48" s="3">
         <v>142756000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>109786000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>54353000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2048,17 +2158,20 @@
         <v>7713000</v>
       </c>
       <c r="K49" s="3">
+        <v>7713000</v>
+      </c>
+      <c r="L49" s="3">
         <v>6632000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8260000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9182000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,14 +2244,17 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3340000</v>
+        <v>17564000</v>
       </c>
       <c r="E52" s="3">
         <v>11650000</v>
@@ -2156,17 +2275,20 @@
         <v>2893000</v>
       </c>
       <c r="K52" s="3">
+        <v>2893000</v>
+      </c>
+      <c r="L52" s="3">
         <v>2289000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2511000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2829000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,9 +2322,12 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2228,17 +2353,20 @@
         <v>139514000</v>
       </c>
       <c r="K54" s="3">
+        <v>139514000</v>
+      </c>
+      <c r="L54" s="3">
         <v>112745000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>108862000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>91022000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,16 +2398,17 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>56165000</v>
+        <v>43505000</v>
       </c>
       <c r="E57" s="3">
-        <v>35307000</v>
+        <v>42459000</v>
       </c>
       <c r="F57" s="3">
         <v>29084000</v>
@@ -2296,25 +2426,28 @@
         <v>11276000</v>
       </c>
       <c r="K57" s="3">
+        <v>11276000</v>
+      </c>
+      <c r="L57" s="3">
         <v>10316000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7203000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5342000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>31879000</v>
       </c>
       <c r="E58" s="3">
-        <v>22102000</v>
+        <v>21287000</v>
       </c>
       <c r="F58" s="3">
         <v>16329000</v>
@@ -2331,8 +2464,8 @@
       <c r="J58" s="3">
         <v>11484000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>11484000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -2340,9 +2473,12 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2376,9 +2512,12 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2412,17 +2551,20 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>175932000</v>
+        <v>155864000</v>
       </c>
       <c r="E61" s="3">
-        <v>143917000</v>
+        <v>137580000</v>
       </c>
       <c r="F61" s="3">
         <v>143275000</v>
@@ -2440,17 +2582,20 @@
         <v>48946000</v>
       </c>
       <c r="K61" s="3">
+        <v>48946000</v>
+      </c>
+      <c r="L61" s="3">
         <v>47653000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>46022000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38207000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2476,17 +2621,20 @@
         <v>8785000</v>
       </c>
       <c r="K62" s="3">
+        <v>8785000</v>
+      </c>
+      <c r="L62" s="3">
         <v>6164000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6425000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5817000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,9 +2746,12 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2620,17 +2777,20 @@
         <v>114207000</v>
       </c>
       <c r="K66" s="3">
+        <v>114207000</v>
+      </c>
+      <c r="L66" s="3">
         <v>91866000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>87811000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>72139000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2744,17 +2911,20 @@
         <v>3739000</v>
       </c>
       <c r="K70" s="3">
+        <v>3739000</v>
+      </c>
+      <c r="L70" s="3">
         <v>3098000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2901000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2140000</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,14 +2958,17 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42210000</v>
+        <v>19115000</v>
       </c>
       <c r="E72" s="3">
         <v>15952000</v>
@@ -2816,17 +2989,20 @@
         <v>10507000</v>
       </c>
       <c r="K72" s="3">
+        <v>10507000</v>
+      </c>
+      <c r="L72" s="3">
         <v>7014000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6364000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5472000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,9 +3114,12 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2960,17 +3145,20 @@
         <v>21568000</v>
       </c>
       <c r="K76" s="3">
+        <v>21568000</v>
+      </c>
+      <c r="L76" s="3">
         <v>17781000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18150000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16743000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3818000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-275000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2655000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3433000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1317000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1518000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2956000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1975000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1251000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1851000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6437000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5791000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4876000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3102000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2345000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2020000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1695000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1455000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1263000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>904000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7667000</v>
+      </c>
+      <c r="E89" s="3">
         <v>8364000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6321000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5158000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3985000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3083000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2788000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2574000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2278000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1505000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>780000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18167000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9123000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9974000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4841000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3804000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3441000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4032000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3095000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6292000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5688000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4081000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21045000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13873000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-36674000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19833000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11394000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8557000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11064000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4041000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4562000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,44 +3758,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1486000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-867000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-772000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-726000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-685000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-633000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-584000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-542000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-541000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-425000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16261000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8698000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>28746000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18136000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8185000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6993000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8222000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2710000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3917000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2650000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-210000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>64000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-332000</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-134000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-35000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2761000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3155000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1612000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3251000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>840000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1525000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-386000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-503000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>813000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>819000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>314000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>BAM</t>
   </si>
@@ -665,7 +665,9 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -693,17 +695,17 @@
       <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
-        <v>43465</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I7" s="2">
-        <v>42735</v>
-      </c>
-      <c r="J7" s="2">
-        <v>42369</v>
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="2">
         <v>42004</v>
@@ -724,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75731000</v>
+        <v>3087000</v>
       </c>
       <c r="E8" s="3">
-        <v>62752000</v>
+        <v>2154000</v>
       </c>
       <c r="F8" s="3">
-        <v>67826000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>56771000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>40786000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>24411000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>19913000</v>
+        <v>2173000</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="3">
         <v>18364000</v>
@@ -762,26 +764,26 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>44149000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>35150000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>41463000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>37506000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>26461000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12487000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>9988000</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K9" s="3">
         <v>9381000</v>
@@ -801,26 +803,26 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>31582000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>27602000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>26363000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>19265000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>14325000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>11924000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>9925000</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3">
         <v>8983000</v>
@@ -936,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>46000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -975,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6437000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>5791000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>4876000</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>3102000</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>2345000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>2020000</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>1695000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>1470000</v>
@@ -1028,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>61019000</v>
+        <v>1407000</v>
       </c>
       <c r="E17" s="3">
-        <v>61208000</v>
+        <v>1213000</v>
       </c>
       <c r="F17" s="3">
-        <v>61977000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>49531000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>35622000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>21418000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>15048000</v>
+        <v>1111000</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K17" s="3">
         <v>11832000</v>
@@ -1067,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14712000</v>
+        <v>1680000</v>
       </c>
       <c r="E18" s="3">
-        <v>1544000</v>
+        <v>941000</v>
       </c>
       <c r="F18" s="3">
-        <v>5849000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>7240000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5164000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2993000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4865000</v>
+        <v>1062000</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K18" s="3">
         <v>6532000</v>
@@ -1123,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1652000</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-158000</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+        <v>660000</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1162,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>21149000</v>
+        <v>3343000</v>
       </c>
       <c r="E21" s="3">
-        <v>7335000</v>
+        <v>790000</v>
       </c>
       <c r="F21" s="3">
-        <v>10725000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>10342000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>7509000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5013000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>6560000</v>
+        <v>1728000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1240,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>14712000</v>
+        <v>3332000</v>
       </c>
       <c r="E23" s="3">
-        <v>1544000</v>
+        <v>783000</v>
       </c>
       <c r="F23" s="3">
-        <v>5849000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>7240000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5164000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2993000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>4865000</v>
+        <v>1722000</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K23" s="3">
         <v>6532000</v>
@@ -1279,25 +1281,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2324000</v>
+        <v>504000</v>
       </c>
       <c r="E24" s="3">
-        <v>837000</v>
+        <v>226000</v>
       </c>
       <c r="F24" s="3">
-        <v>495000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-248000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>613000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-345000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>196000</v>
+        <v>-375000</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>1323000</v>
@@ -1357,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>12388000</v>
+        <v>2828000</v>
       </c>
       <c r="E26" s="3">
-        <v>707000</v>
+        <v>557000</v>
       </c>
       <c r="F26" s="3">
-        <v>5354000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>7488000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>4551000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>3338000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>4669000</v>
+        <v>2097000</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K26" s="3">
         <v>5209000</v>
@@ -1396,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3818000</v>
+        <v>1851000</v>
       </c>
       <c r="E27" s="3">
-        <v>-275000</v>
+        <v>382000</v>
       </c>
       <c r="F27" s="3">
-        <v>2655000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>3433000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1518000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2207000</v>
+        <v>1913000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K27" s="3">
         <v>2956000</v>
@@ -1591,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-1652000</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>158000</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+        <v>-660000</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1630,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3818000</v>
+        <v>1851000</v>
       </c>
       <c r="E33" s="3">
-        <v>-275000</v>
+        <v>382000</v>
       </c>
       <c r="F33" s="3">
-        <v>2655000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>3433000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1518000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>2207000</v>
+        <v>1913000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K33" s="3">
         <v>2956000</v>
@@ -1708,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3818000</v>
+        <v>1851000</v>
       </c>
       <c r="E35" s="3">
-        <v>-275000</v>
+        <v>382000</v>
       </c>
       <c r="F35" s="3">
-        <v>2655000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>3433000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1518000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>2207000</v>
+        <v>1913000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K35" s="3">
         <v>2956000</v>
@@ -1760,17 +1762,17 @@
       <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
-        <v>43465</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I38" s="2">
-        <v>42735</v>
-      </c>
-      <c r="J38" s="2">
-        <v>42369</v>
+      <c r="G38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K38" s="2">
         <v>42004</v>
@@ -1825,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12694000</v>
+        <v>2494000</v>
       </c>
       <c r="E41" s="3">
-        <v>9933000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6778000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>8390000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>5139000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4299000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2774000</v>
+        <v>2101000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K41" s="3">
         <v>2774000</v>
@@ -1903,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11332000</v>
+        <v>860000</v>
       </c>
       <c r="E43" s="3">
-        <v>10113000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>11129000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>9167000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>7209000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4294000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>7044000</v>
+        <v>617000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>7044000</v>
@@ -1942,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11415000</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>10360000</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>10272000</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>6989000</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>6311000</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>5349000</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>5281000</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>5281000</v>
@@ -1981,22 +1983,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8162000</v>
+        <v>40000</v>
       </c>
       <c r="E45" s="3">
-        <v>6335000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5636000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5508000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3350000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>3448000</v>
+        <v>52000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2059,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62646000</v>
+        <v>19706000</v>
       </c>
       <c r="E47" s="3">
-        <v>59057000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>53166000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>39874000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>36794000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>29677000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>29372000</v>
+        <v>17120000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>29372000</v>
@@ -2098,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>216354000</v>
+        <v>48000</v>
       </c>
       <c r="E48" s="3">
-        <v>196791000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>185950000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>151603000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>109875000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>99518000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>84437000</v>
+        <v>21000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>84437000</v>
@@ -2137,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>50836000</v>
+        <v>313000</v>
       </c>
       <c r="E49" s="3">
-        <v>39372000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>42260000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>27577000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>19559000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>9856000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7713000</v>
+        <v>320000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>7713000</v>
@@ -2254,25 +2256,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>17564000</v>
+        <v>2268000</v>
       </c>
       <c r="E52" s="3">
-        <v>11650000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>8669000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6840000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4093000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2998000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2893000</v>
+        <v>2240000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>2893000</v>
@@ -2332,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>391003000</v>
+        <v>25729000</v>
       </c>
       <c r="E54" s="3">
-        <v>343696000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>323969000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>256281000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>192720000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>159826000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>139514000</v>
+        <v>22471000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K54" s="3">
         <v>139514000</v>
@@ -2405,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>43505000</v>
+        <v>561000</v>
       </c>
       <c r="E57" s="3">
-        <v>42459000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>29084000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>23740000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>17821000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>11879000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>11276000</v>
+        <v>611000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K57" s="3">
         <v>11276000</v>
@@ -2444,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31879000</v>
+        <v>461000</v>
       </c>
       <c r="E58" s="3">
-        <v>21287000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>16329000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>11624000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>10778000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>8973000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>11484000</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>11484000</v>
@@ -2483,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>5342000</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>4389000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2561,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>155864000</v>
+        <v>4102000</v>
       </c>
       <c r="E61" s="3">
-        <v>137580000</v>
+        <v>4781000</v>
       </c>
       <c r="F61" s="3">
-        <v>143275000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>108995000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>69857000</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>58080000</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>48946000</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>48946000</v>
@@ -2600,25 +2602,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20328000</v>
+        <v>700000</v>
       </c>
       <c r="E62" s="3">
-        <v>15913000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>14849000</v>
-      </c>
-      <c r="G62" s="3">
-        <v>12236000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>11409000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9640000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>8785000</v>
+        <v>472000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>8785000</v>
@@ -2756,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>344648000</v>
+        <v>15932000</v>
       </c>
       <c r="E66" s="3">
-        <v>307858000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>288956000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>226466000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>164476000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>133373000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>114207000</v>
+        <v>13367000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K66" s="3">
         <v>114207000</v>
@@ -2890,25 +2892,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4145000</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>4145000</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>4145000</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>4168000</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>4192000</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>3954000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>3739000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>3739000</v>
@@ -2968,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19115000</v>
+        <v>9641000</v>
       </c>
       <c r="E72" s="3">
-        <v>15952000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>16408000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>14551000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>11899000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>11182000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>10507000</v>
+        <v>8942000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>10507000</v>
@@ -3124,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42210000</v>
+        <v>9797000</v>
       </c>
       <c r="E76" s="3">
-        <v>31693000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>30868000</v>
-      </c>
-      <c r="G76" s="3">
-        <v>25647000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>24052000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>22499000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>21568000</v>
+        <v>9104000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K76" s="3">
         <v>21568000</v>
@@ -3215,17 +3217,17 @@
       <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
-        <v>43465</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43100</v>
-      </c>
-      <c r="I80" s="2">
-        <v>42735</v>
-      </c>
-      <c r="J80" s="2">
-        <v>42369</v>
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="K80" s="2">
         <v>42004</v>
@@ -3246,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3818000</v>
+        <v>1851000</v>
       </c>
       <c r="E81" s="3">
-        <v>-275000</v>
+        <v>382000</v>
       </c>
       <c r="F81" s="3">
-        <v>2655000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>3433000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1317000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1518000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>2207000</v>
+        <v>1913000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K81" s="3">
         <v>2956000</v>
@@ -3302,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6437000</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>5791000</v>
+        <v>7000</v>
       </c>
       <c r="F83" s="3">
-        <v>4876000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3102000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>2345000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>2020000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1695000</v>
+        <v>6000</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7667000</v>
+        <v>1443000</v>
       </c>
       <c r="E89" s="3">
-        <v>8364000</v>
+        <v>1786000</v>
       </c>
       <c r="F89" s="3">
-        <v>6321000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>5158000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>3985000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>3083000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2788000</v>
+        <v>829000</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K89" s="3">
         <v>2574000</v>
@@ -3592,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18167000</v>
+        <v>-35000</v>
       </c>
       <c r="E91" s="3">
-        <v>-9123000</v>
+        <v>-20000</v>
       </c>
       <c r="F91" s="3">
-        <v>-9974000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-4841000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-3804000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3441000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4032000</v>
+        <v>-1000</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>-3095000</v>
@@ -3709,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21045000</v>
+        <v>-861000</v>
       </c>
       <c r="E94" s="3">
-        <v>-13873000</v>
+        <v>-759000</v>
       </c>
       <c r="F94" s="3">
-        <v>-36674000</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-19833000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-11394000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-8557000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-11064000</v>
+        <v>-3998000</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3765,25 +3767,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1486000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-867000</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-772000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-726000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-685000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-633000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-584000</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-542000</v>
@@ -3921,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16261000</v>
+        <v>-187000</v>
       </c>
       <c r="E100" s="3">
-        <v>8698000</v>
+        <v>-576000</v>
       </c>
       <c r="F100" s="3">
-        <v>28746000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>18136000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>8185000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>6993000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>8222000</v>
+        <v>3384000</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3960,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-122000</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
-        <v>-34000</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-210000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>64000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-332000</v>
+        <v>0</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3999,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2761000</v>
+        <v>393000</v>
       </c>
       <c r="E102" s="3">
-        <v>3155000</v>
+        <v>455000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1612000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>3251000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>840000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1525000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-386000</v>
+        <v>215000</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K102" s="3">
         <v>-503000</v>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>BAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
@@ -707,36 +707,39 @@
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3627000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3087000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2154000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2173000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -746,21 +749,24 @@
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>18364000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20093000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18766000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15921000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,21 +791,24 @@
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>9381000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10416000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10846000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>11906000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,21 +833,24 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>8983000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9677000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7920000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4015000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,9 +905,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,21 +947,24 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>46000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
@@ -958,8 +977,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -970,9 +989,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -998,20 +1020,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1470000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1455000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1263000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>904000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,23 +1049,24 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1407000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1213000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1111000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1050,36 +1076,39 @@
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>11832000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15404000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15492000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11739000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2256000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1680000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>941000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1062000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1089,21 +1118,24 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>6532000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4689000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3274000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4182000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,23 +1151,24 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1652000</v>
+        <v>1236000</v>
       </c>
       <c r="E20" s="3">
-        <v>-158000</v>
+        <v>1670000</v>
       </c>
       <c r="F20" s="3">
+        <v>-142000</v>
+      </c>
+      <c r="G20" s="3">
         <v>660000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1145,8 +1178,8 @@
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1157,24 +1190,27 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3343000</v>
+        <v>3505000</v>
       </c>
       <c r="E21" s="3">
-        <v>790000</v>
+        <v>3361000</v>
       </c>
       <c r="F21" s="3">
+        <v>806000</v>
+      </c>
+      <c r="G21" s="3">
         <v>1728000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1187,18 +1223,21 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>6144000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4537000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5086000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1235,24 +1274,27 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3332000</v>
+        <v>3492000</v>
       </c>
       <c r="E23" s="3">
-        <v>783000</v>
+        <v>3350000</v>
       </c>
       <c r="F23" s="3">
+        <v>799000</v>
+      </c>
+      <c r="G23" s="3">
         <v>1722000</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1262,36 +1304,39 @@
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>6532000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4689000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3274000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4182000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E24" s="3">
         <v>504000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>226000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-375000</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1301,21 +1346,24 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>1323000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>845000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>519000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>508000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,24 +1400,27 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2828000</v>
+        <v>2865000</v>
       </c>
       <c r="E26" s="3">
-        <v>557000</v>
+        <v>2846000</v>
       </c>
       <c r="F26" s="3">
+        <v>573000</v>
+      </c>
+      <c r="G26" s="3">
         <v>2097000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1379,60 +1430,66 @@
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>5209000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3844000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2755000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3674000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>398000</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="O27" s="3">
         <v>1851000</v>
       </c>
-      <c r="E27" s="3">
-        <v>382000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1913000</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="3">
-        <v>2956000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1975000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1251000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1851000</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,24 +1652,27 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1652000</v>
+        <v>-1236000</v>
       </c>
       <c r="E32" s="3">
-        <v>158000</v>
+        <v>-1670000</v>
       </c>
       <c r="F32" s="3">
+        <v>142000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-660000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1613,8 +1682,8 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1625,48 +1694,54 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>398000</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="O33" s="3">
         <v>1851000</v>
       </c>
-      <c r="E33" s="3">
-        <v>382000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1913000</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K33" s="3">
-        <v>2956000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1975000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1251000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1851000</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,68 +1778,74 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>398000</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="O35" s="3">
         <v>1851000</v>
       </c>
-      <c r="E35" s="3">
-        <v>382000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1913000</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="3">
-        <v>2956000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1975000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1251000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1851000</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1774,21 +1855,24 @@
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,20 +1906,21 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3545000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2494000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2101000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
@@ -1847,21 +1933,24 @@
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>2774000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3663000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2850000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2027000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,21 +1987,24 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E43" s="3">
         <v>860000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>617000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1925,21 +2017,24 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>7044000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6666000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4379000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4149000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1965,32 +2060,35 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>5281000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6291000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>13160000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6060000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E45" s="3">
         <v>40000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2006,18 +2104,21 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>1490000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1727000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1855000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2054,21 +2155,24 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>19706000</v>
+        <v>7727000</v>
       </c>
       <c r="E47" s="3">
+        <v>19807000</v>
+      </c>
+      <c r="F47" s="3">
         <v>17120000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2081,33 +2185,36 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="3">
         <v>29372000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18224000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26418000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>13174000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>48000</v>
+        <v>68000</v>
       </c>
       <c r="E48" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F48" s="3">
         <v>21000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2120,33 +2227,36 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>84437000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>142756000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>109786000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>54353000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E49" s="3">
         <v>313000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>320000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2159,21 +2269,24 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>7713000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6632000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8260000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9182000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,21 +2365,24 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2268000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2240000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2276,21 +2395,24 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>2893000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2289000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2511000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2829000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,21 +2449,24 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25729000</v>
+        <v>14087000</v>
       </c>
       <c r="E54" s="3">
+        <v>25643000</v>
+      </c>
+      <c r="F54" s="3">
         <v>22471000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2354,21 +2479,24 @@
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>139514000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>112745000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>108862000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>91022000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,20 +2530,21 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E57" s="3">
         <v>561000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>611000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2427,32 +2557,35 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>11276000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10316000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7203000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5342000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>461000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2466,33 +2599,36 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>11484000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5342000</v>
+        <v>1802000</v>
       </c>
       <c r="E59" s="3">
+        <v>5182000</v>
+      </c>
+      <c r="F59" s="3">
         <v>4389000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2505,8 +2641,8 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2517,9 +2653,12 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2556,21 +2695,24 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>4102000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4781000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2584,32 +2726,35 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>48946000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47653000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>46022000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38207000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E62" s="3">
         <v>700000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>472000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2622,21 +2767,24 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>8785000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6164000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6425000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5817000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,21 +2905,24 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15932000</v>
+        <v>2768000</v>
       </c>
       <c r="E66" s="3">
+        <v>15772000</v>
+      </c>
+      <c r="F66" s="3">
         <v>13367000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
@@ -2778,21 +2935,24 @@
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>114207000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>91866000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>87811000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>72139000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,14 +3049,17 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1811000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2913,20 +3080,23 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>3739000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3098000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>2901000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>2140000</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,21 +3133,24 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9641000</v>
+        <v>84000</v>
       </c>
       <c r="E72" s="3">
+        <v>9715000</v>
+      </c>
+      <c r="F72" s="3">
         <v>8942000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2990,21 +3163,24 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>10507000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7014000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6364000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5472000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,21 +3301,24 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9797000</v>
+        <v>9508000</v>
       </c>
       <c r="E76" s="3">
+        <v>9871000</v>
+      </c>
+      <c r="F76" s="3">
         <v>9104000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3146,21 +3331,24 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>21568000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17781000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18150000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16743000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,29 +3385,32 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3229,60 +3420,66 @@
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>398000</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1975000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1251000</v>
+      </c>
+      <c r="O81" s="3">
         <v>1851000</v>
       </c>
-      <c r="E81" s="3">
-        <v>382000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1913000</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K81" s="3">
-        <v>2956000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1975000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1251000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1851000</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,23 +3495,24 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E83" s="3">
         <v>11000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3327,18 +3525,21 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>1455000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1263000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>904000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,24 +3744,27 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1443000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1786000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>829000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
       </c>
@@ -3558,21 +3774,24 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>2574000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2278000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1505000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>780000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,23 +3807,24 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,21 +3834,24 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-3095000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6292000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5688000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4081000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,24 +3930,27 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-861000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-759000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3998000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
@@ -3734,18 +3963,21 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-4041000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4562000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3081000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3993,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3788,20 +4021,23 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-542000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-541000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1177000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-425000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,24 +4158,27 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-187000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-576000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3384000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
@@ -3946,32 +4191,35 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>2710000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3917000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2650000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -3985,33 +4233,36 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-134000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-35000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E102" s="3">
         <v>393000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>455000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>215000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4021,19 +4272,22 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-503000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>813000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>819000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>314000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BAM_YR_FIN.xlsx
@@ -2210,7 +2210,7 @@
         <v>68000</v>
       </c>
       <c r="E48" s="3">
-        <v>96000</v>
+        <v>48000</v>
       </c>
       <c r="F48" s="3">
         <v>21000</v>
